--- a/Fase 2/Evidencias del Proyecto/Gestión de Interesados.xlsx
+++ b/Fase 2/Evidencias del Proyecto/Gestión de Interesados.xlsx
@@ -34,7 +34,7 @@
     <t>Estrategia de Gestión</t>
   </si>
   <si>
-    <t>Docente Guía APT (por confirmar)</t>
+    <t xml:space="preserve">Docente Guía APT </t>
   </si>
   <si>
     <t>Patrocinador principal del proyecto</t>
